--- a/src/main/resources/static/excel/columnTemplate.xlsx
+++ b/src/main/resources/static/excel/columnTemplate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>테이블명</t>
   </si>
@@ -49,6 +49,9 @@
     <t>참조 테이블명</t>
   </si>
   <si>
+    <t>데이터 예시</t>
+  </si>
+  <si>
     <t>필수 입력 여부</t>
   </si>
   <si>
@@ -64,12 +67,6 @@
     <t>암호화 필요 여부</t>
   </si>
   <si>
-    <t>엑셀 컬럼 헤더 표시명</t>
-  </si>
-  <si>
-    <t>데이터 예시</t>
-  </si>
-  <si>
     <t>ex_table</t>
   </si>
   <si>
@@ -85,13 +82,10 @@
     <t>N</t>
   </si>
   <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>사용자ID</t>
-  </si>
-  <si>
-    <t>test@test.com</t>
   </si>
 </sst>
 </file>
@@ -109,12 +103,10 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -157,20 +149,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -398,121 +384,113 @@
     <col customWidth="1" min="10" max="10" width="8.86"/>
     <col customWidth="1" min="11" max="11" width="16.57"/>
     <col customWidth="1" min="12" max="12" width="12.43"/>
-    <col customWidth="1" min="13" max="13" width="13.0"/>
-    <col customWidth="1" min="14" max="14" width="12.43"/>
-    <col customWidth="1" min="15" max="15" width="10.71"/>
-    <col customWidth="1" min="16" max="17" width="14.71"/>
-    <col customWidth="1" min="18" max="18" width="18.86"/>
-    <col customWidth="1" min="19" max="19" width="13.57"/>
-    <col customWidth="1" min="20" max="27" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="13.57"/>
+    <col customWidth="1" min="14" max="14" width="13.0"/>
+    <col customWidth="1" min="15" max="15" width="12.43"/>
+    <col customWidth="1" min="16" max="16" width="10.71"/>
+    <col customWidth="1" min="17" max="18" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>26</v>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1497,11 +1475,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 K2 N2:R2">
+      <formula1>"N,Y"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="D2">
       <formula1>"VARCHAR,BIGINT,DATE,NUMERIC,BOOLEAN,VARCHAR2,TIMESTAMP,NUMERIC,DECIMAL,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 K2 M2:Q2">
-      <formula1>"N,Y"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>

--- a/src/main/resources/static/excel/columnTemplate.xlsx
+++ b/src/main/resources/static/excel/columnTemplate.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="J8kysZ9WQeWJABnfK7RCowMGr9pgSNg+BTDmOM0/ZoU="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>테이블명</t>
   </si>
@@ -49,24 +54,30 @@
     <t>참조 테이블명</t>
   </si>
   <si>
+    <t>필수 입력 여부</t>
+  </si>
+  <si>
+    <t>민감정보 여부</t>
+  </si>
+  <si>
+    <t>PK 여부</t>
+  </si>
+  <si>
+    <t>고유값 여부</t>
+  </si>
+  <si>
+    <t>인덱스 생성 여부</t>
+  </si>
+  <si>
+    <t>암호화 필요 여부</t>
+  </si>
+  <si>
+    <t>엑셀 컬럼 헤더 표시명</t>
+  </si>
+  <si>
     <t>데이터 예시</t>
   </si>
   <si>
-    <t>필수 입력 여부</t>
-  </si>
-  <si>
-    <t>민감정보 여부</t>
-  </si>
-  <si>
-    <t>고유값 여부</t>
-  </si>
-  <si>
-    <t>인덱스 생성 여부</t>
-  </si>
-  <si>
-    <t>암호화 필요 여부</t>
-  </si>
-  <si>
     <t>ex_table</t>
   </si>
   <si>
@@ -82,10 +93,13 @@
     <t>N</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>사용자ID</t>
+  </si>
+  <si>
     <t>test@test.com</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -149,12 +163,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
@@ -384,11 +401,12 @@
     <col customWidth="1" min="10" max="10" width="8.86"/>
     <col customWidth="1" min="11" max="11" width="16.57"/>
     <col customWidth="1" min="12" max="12" width="12.43"/>
-    <col customWidth="1" min="13" max="13" width="13.57"/>
-    <col customWidth="1" min="14" max="14" width="13.0"/>
-    <col customWidth="1" min="15" max="15" width="12.43"/>
-    <col customWidth="1" min="16" max="16" width="10.71"/>
+    <col customWidth="1" min="13" max="13" width="13.0"/>
+    <col customWidth="1" min="14" max="14" width="12.43"/>
+    <col customWidth="1" min="15" max="16" width="10.71"/>
     <col customWidth="1" min="17" max="18" width="14.71"/>
+    <col customWidth="1" min="19" max="19" width="18.86"/>
+    <col customWidth="1" min="20" max="20" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -434,7 +452,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -446,51 +464,63 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
         <v>1.0</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>22</v>
+      <c r="S2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1475,7 +1505,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 K2 N2:R2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 K2 M2:R2">
       <formula1>"N,Y"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="D2">
